--- a/public/import/user_template (4).xlsx
+++ b/public/import/user_template (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neng-data\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finance online\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFC17F4-44BD-404E-954B-4777EF9D066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A1E7AD-A278-4921-9533-E90343DA84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -60,48 +60,42 @@
     <t>password</t>
   </si>
   <si>
-    <t>muchmammadridhwan</t>
-  </si>
-  <si>
-    <t>DSF/DM</t>
+    <t>NANDA PRATAMA</t>
+  </si>
+  <si>
+    <t>NANDAP</t>
+  </si>
+  <si>
+    <t>DSF</t>
+  </si>
+  <si>
+    <t>CV.TOP</t>
   </si>
   <si>
     <t>ORAIMO</t>
   </si>
   <si>
-    <t>JABO1</t>
-  </si>
-  <si>
-    <t>SEPTO ANDI</t>
-  </si>
-  <si>
-    <t>complete123</t>
-  </si>
-  <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>MuchmammadRidhwan</t>
-  </si>
-  <si>
-    <t>BEKASI2</t>
+    <t>TANGERANGBANTEN</t>
+  </si>
+  <si>
+    <t>TANGERANGKABUPATEN</t>
+  </si>
+  <si>
+    <t>ADI SUHADI</t>
+  </si>
+  <si>
+    <t>nanda123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,18 +427,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,33 +461,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
